--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-12T02:30:34+00:00</t>
+    <t>2024-12-13T23:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,22 +147,22 @@
     <t>Person-Centered</t>
   </si>
   <si>
-    <t>person-centered-goal</t>
-  </si>
-  <si>
-    <t>Person-Centered Goal</t>
-  </si>
-  <si>
-    <t>pco-data-submission-bundle</t>
-  </si>
-  <si>
-    <t>PCO Bundle</t>
-  </si>
-  <si>
-    <t>pco-data-submission-standing-order</t>
-  </si>
-  <si>
-    <t>PCO Submission Standing Order</t>
+    <t>what-matters</t>
+  </si>
+  <si>
+    <t>What Matters</t>
+  </si>
+  <si>
+    <t>bothersome-health-concern</t>
+  </si>
+  <si>
+    <t>Bothersome Health Concern</t>
+  </si>
+  <si>
+    <t>care-trade-off</t>
+  </si>
+  <si>
+    <t>Care Trade-Off</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t>Level</t>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>Person-Centered</t>
-  </si>
-  <si>
-    <t>what-matters</t>
-  </si>
-  <si>
-    <t>What Matters</t>
   </si>
   <si>
     <t>bothersome-health-concern</t>
@@ -475,7 +469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,18 +525,6 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-pco-codes.xlsx
+++ b/CodeSystem-pco-codes.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
